--- a/dades/6S1.xlsx
+++ b/dades/6S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B8B3DA-784B-44D2-97E8-623E03D9929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E358EF-B46B-4822-8D21-2C08E3651EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="207">
   <si>
     <t>departure</t>
   </si>
@@ -586,6 +586,78 @@
   <si>
     <t>Fabra i Puig</t>
   </si>
+  <si>
+    <t>R18A.001</t>
+  </si>
+  <si>
+    <t>R18A.002</t>
+  </si>
+  <si>
+    <t>R18A.003</t>
+  </si>
+  <si>
+    <t>R18A.004</t>
+  </si>
+  <si>
+    <t>R18A</t>
+  </si>
+  <si>
+    <t>R18A.005</t>
+  </si>
+  <si>
+    <t>R18A.006</t>
+  </si>
+  <si>
+    <t>La Tor de Querol</t>
+  </si>
+  <si>
+    <t>Barcelona Estació del Nord</t>
+  </si>
+  <si>
+    <t>R18A.007</t>
+  </si>
+  <si>
+    <t>R18A.008</t>
+  </si>
+  <si>
+    <t>R18A.009</t>
+  </si>
+  <si>
+    <t>R18A.010</t>
+  </si>
+  <si>
+    <t>R18A.011</t>
+  </si>
+  <si>
+    <t>R18A.012</t>
+  </si>
+  <si>
+    <t>R18A.013</t>
+  </si>
+  <si>
+    <t>R18A.014</t>
+  </si>
+  <si>
+    <t>R18A.015</t>
+  </si>
+  <si>
+    <t>R18C</t>
+  </si>
+  <si>
+    <t>R18A.016</t>
+  </si>
+  <si>
+    <t>R18A.017</t>
+  </si>
+  <si>
+    <t>R18A.018</t>
+  </si>
+  <si>
+    <t>R18A.019</t>
+  </si>
+  <si>
+    <t>R18A.020</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,10 +713,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D128A9A2-21E5-429C-AB67-DC7F91E2616B}" name="Taula1" displayName="Taula1" ref="A1:E1145" totalsRowShown="0">
-  <autoFilter ref="A1:E1145" xr:uid="{D128A9A2-21E5-429C-AB67-DC7F91E2616B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D128A9A2-21E5-429C-AB67-DC7F91E2616B}" name="Taula1" displayName="Taula1" ref="A1:E1205" totalsRowShown="0">
+  <autoFilter ref="A1:E1205" xr:uid="{D128A9A2-21E5-429C-AB67-DC7F91E2616B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2D5F3238-DFED-4C97-A86B-AF2E6414B11F}" name="station"/>
     <tableColumn id="2" xr3:uid="{147ADF45-BF40-4788-86FE-0A73457279CC}" name="departure" dataDxfId="0"/>
@@ -937,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1145"/>
+  <dimension ref="A1:H1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A986" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1018" sqref="B1018"/>
+    <sheetView tabSelected="1" topLeftCell="A1151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1178" sqref="E1178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +1030,7 @@
     <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -21359,6 +21440,1065 @@
       </c>
       <c r="E1145" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>0.20891203703703706</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>0.2129050925925926</v>
+      </c>
+      <c r="C1147" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1148" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>0.45659722222222227</v>
+      </c>
+      <c r="C1149" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>0.45914351851851848</v>
+      </c>
+      <c r="C1150" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>0.46255787037037038</v>
+      </c>
+      <c r="C1151" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1152" s="1">
+        <f>B1146+(8/24)</f>
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1153" s="1">
+        <f t="shared" ref="B1153:B1157" si="20">B1147+(8/24)</f>
+        <v>0.54623842592592586</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1154" s="1">
+        <f t="shared" si="20"/>
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1155" s="1">
+        <f t="shared" si="20"/>
+        <v>0.78993055555555558</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1156" s="1">
+        <f t="shared" si="20"/>
+        <v>0.79247685185185179</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1157" s="1">
+        <f t="shared" si="20"/>
+        <v>0.7958912037037037</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>0.88466435185185188</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1158" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>0.88865740740740751</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1159" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>0.89103009259259258</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>5.5960648148148141E-2</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1161" s="4"/>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>5.8506944444444452E-2</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1162" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1162" s="4"/>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>6.1921296296296301E-2</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1163" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1163" s="4"/>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>0.28993055555555552</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>0.29247685185185185</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>0.2958912037037037</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>0.37557870370370372</v>
+      </c>
+      <c r="C1167" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>0.37957175925925929</v>
+      </c>
+      <c r="C1168" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1170" s="1">
+        <f>B1164+(8/24)</f>
+        <v>0.62326388888888884</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1171" s="1">
+        <f t="shared" ref="B1171:B1175" si="21">B1165+(8/24)</f>
+        <v>0.62581018518518516</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1172" s="1">
+        <f t="shared" si="21"/>
+        <v>0.62922453703703707</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1173" s="1">
+        <f t="shared" si="21"/>
+        <v>0.70891203703703698</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1174" s="1">
+        <f t="shared" si="21"/>
+        <v>0.7129050925925926</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1175" s="1">
+        <f t="shared" si="21"/>
+        <v>0.71527777777777768</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>0.96423611111111107</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1176" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>0.96678240740740751</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1177" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>0.97019675925925919</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1178" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>0.97280092592592593</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1179" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>0.97679398148148155</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1180" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1181" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1182" s="1">
+        <f>B1146+(2/24)</f>
+        <v>0.29224537037037041</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1183" s="1">
+        <f t="shared" ref="B1183:B1194" si="22">B1147+(2/24)</f>
+        <v>0.29623842592592592</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1184" s="1">
+        <f t="shared" si="22"/>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1185" s="1">
+        <f t="shared" si="22"/>
+        <v>0.53993055555555558</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1186" s="1">
+        <f t="shared" si="22"/>
+        <v>0.54247685185185179</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1187" s="1">
+        <f t="shared" si="22"/>
+        <v>0.5458912037037037</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1188" s="1">
+        <f>B1152+(2/24)</f>
+        <v>0.62557870370370372</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1189" s="1">
+        <f t="shared" si="22"/>
+        <v>0.62957175925925923</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1190" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63194444444444453</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1191" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87326388888888895</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1192" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87581018518518516</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1193" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87922453703703707</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1194" s="1">
+        <f>B1164+(2/24)</f>
+        <v>0.37326388888888884</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1195" s="1">
+        <f t="shared" ref="B1195:B1205" si="23">B1165+(2/24)</f>
+        <v>0.37581018518518516</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1196" s="1">
+        <f t="shared" si="23"/>
+        <v>0.37922453703703701</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1197" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45891203703703703</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1198" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4629050925925926</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1199" s="1">
+        <f t="shared" si="23"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1200" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70659722222222221</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1201" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70914351851851853</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1202" s="1">
+        <f t="shared" si="23"/>
+        <v>0.71255787037037044</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1203" s="1">
+        <f t="shared" si="23"/>
+        <v>0.79224537037037035</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1204" s="1">
+        <f t="shared" si="23"/>
+        <v>0.79623842592592597</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1205" s="1">
+        <f t="shared" si="23"/>
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
